--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="396" windowWidth="16608" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="396" windowWidth="16608" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Post" sheetId="2" r:id="rId1"/>
-    <sheet name="Get" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -49,6 +49,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ookie</t>
@@ -106,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Demo的用例测试点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -122,15 +119,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>error_code=200</t>
+    <t>error_code=20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,11 +143,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -154,6 +157,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -161,6 +165,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -168,6 +173,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -176,6 +182,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -183,6 +190,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -390,6 +398,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,7 +452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,9 +484,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,6 +519,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,14 +695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.21875" customWidth="1"/>
@@ -700,12 +718,12 @@
     <col min="12" max="12" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="9"/>
@@ -716,7 +734,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -726,7 +744,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -734,12 +752,12 @@
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
@@ -750,7 +768,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -780,7 +798,7 @@
       </c>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" s="15" customFormat="1">
+    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
@@ -795,16 +813,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -818,14 +836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.21875" customWidth="1"/>
@@ -838,12 +856,12 @@
     <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="9"/>
@@ -851,7 +869,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -861,7 +879,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -869,12 +887,12 @@
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
@@ -882,7 +900,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -911,7 +929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
@@ -926,16 +944,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
